--- a/shanoir-ng-anonymization/src/main/resources/anonymization.xlsx
+++ b/shanoir-ng-anonymization/src/main/resources/anonymization.xlsx
@@ -3147,8 +3147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="G282" sqref="G282"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="A264" sqref="A264:F264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8447,7 +8447,7 @@
         <v>4</v>
       </c>
       <c r="F264" s="9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G264" s="9" t="s">
         <v>4</v>
@@ -8778,7 +8778,7 @@
         <v>3</v>
       </c>
       <c r="F281" s="9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G281" s="9" t="s">
         <v>7</v>
@@ -9317,7 +9317,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9427,8 +9427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="C22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9938,10 +9938,10 @@
       <c r="B22" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="28" t="s">

--- a/shanoir-ng-anonymization/src/main/resources/anonymization.xlsx
+++ b/shanoir-ng-anonymization/src/main/resources/anonymization.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Feuil2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Feuil3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="ExcludePrivateTag" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Feuil2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Feuil3" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="839">
   <si>
     <t xml:space="preserve">Attribute Name</t>
   </si>
@@ -2300,6 +2301,57 @@
   </si>
   <si>
     <t xml:space="preserve">0x00384000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x0019100A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x0019100B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x0019100C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x0019100D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x0019100E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x0019100F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00191027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00191028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00431039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x001910BB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x001910BC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x001910BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00189087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00189089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00290011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00291010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00291020</t>
   </si>
   <si>
     <t xml:space="preserve">Legend</t>
@@ -2716,10 +2768,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2765,24 +2816,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFCCCCCC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2821,7 +2860,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2845,17 +2884,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2892,11 +2925,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2908,7 +2941,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2920,16 +2953,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2944,23 +2977,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="22" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2970,10 +2999,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2993,16 +3018,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Good" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Bad" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Accent2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -3015,7 +3038,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF9C0006"/>
-      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -3040,12 +3063,12 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -3074,19 +3097,19 @@
   </sheetPr>
   <dimension ref="A1:G305"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B178" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G199" activeCellId="0" sqref="G199"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B187" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -3112,6 +3135,12 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -7078,7 +7107,7 @@
         <v>14</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9250,6 +9279,124 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="s">
+        <v>774</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -9259,13 +9406,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="103.797570850202"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="109.473684210526"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>758</v>
+      <c r="A1" s="18" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9273,7 +9420,7 @@
         <v>195</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>759</v>
+        <v>776</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9281,7 +9428,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9289,7 +9436,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>761</v>
+        <v>778</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9297,15 +9444,15 @@
         <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>762</v>
+        <v>779</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>764</v>
+        <v>781</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9313,7 +9460,7 @@
         <v>81</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>765</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9321,7 +9468,7 @@
         <v>94</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>766</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9329,7 +9476,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>767</v>
+        <v>784</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9337,7 +9484,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>768</v>
+        <v>785</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9345,7 +9492,7 @@
         <v>143</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>769</v>
+        <v>786</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9353,7 +9500,7 @@
         <v>517</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>770</v>
+        <v>787</v>
       </c>
     </row>
   </sheetData>
@@ -9367,7 +9514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -9380,17 +9527,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.8137651821862"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="59.3441295546559"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="51.5222672064777"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -9408,22 +9555,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>771</v>
+        <v>788</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>773</v>
+        <v>790</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>774</v>
+        <v>791</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9439,14 +9586,14 @@
       <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>777</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>778</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>779</v>
+      <c r="E5" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>796</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>3</v>
@@ -9455,7 +9602,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9471,14 +9618,14 @@
       <c r="D6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>777</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>778</v>
+      <c r="E6" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>795</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="H6" s="12" t="n">
         <v>3</v>
@@ -9487,7 +9634,7 @@
         <v>26</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9504,7 +9651,7 @@
         <v>26</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>781</v>
+        <v>798</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
@@ -9513,7 +9660,7 @@
         <v>26</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>782</v>
+        <v>799</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9530,13 +9677,13 @@
         <v>21</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="H8" s="12" t="n">
         <v>3</v>
@@ -9545,7 +9692,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9562,25 +9709,25 @@
         <v>94</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>783</v>
+        <v>800</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>784</v>
+        <v>801</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>94</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>785</v>
+        <v>802</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9597,25 +9744,25 @@
         <v>94</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>783</v>
+        <v>800</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>786</v>
+        <v>803</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>94</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>785</v>
+        <v>802</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9632,13 +9779,13 @@
         <v>94</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>787</v>
+        <v>804</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>788</v>
+        <v>805</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>789</v>
+        <v>806</v>
       </c>
       <c r="H11" s="24" t="n">
         <v>2</v>
@@ -9647,7 +9794,7 @@
         <v>94</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>785</v>
+        <v>802</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9664,13 +9811,13 @@
         <v>143</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>790</v>
+        <v>807</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>791</v>
+        <v>808</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="H12" s="12" t="n">
         <v>3</v>
@@ -9679,7 +9826,7 @@
         <v>143</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9702,7 +9849,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>792</v>
+        <v>809</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>227</v>
@@ -9714,7 +9861,7 @@
         <v>143</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>781</v>
+        <v>798</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
@@ -9723,7 +9870,7 @@
         <v>143</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>782</v>
+        <v>799</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9740,13 +9887,13 @@
         <v>143</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>790</v>
+        <v>807</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>791</v>
+        <v>808</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="H16" s="12" t="n">
         <v>3</v>
@@ -9755,7 +9902,7 @@
         <v>143</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9763,13 +9910,13 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="20" t="s">
-        <v>793</v>
+        <v>810</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>794</v>
+        <v>811</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="H17" s="12" t="n">
         <v>3</v>
@@ -9791,13 +9938,13 @@
         <v>26</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>795</v>
+        <v>812</v>
       </c>
       <c r="F18" s="20" t="s">
+        <v>813</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>796</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>779</v>
       </c>
       <c r="H18" s="12" t="n">
         <v>3</v>
@@ -9806,7 +9953,7 @@
         <v>26</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9814,13 +9961,13 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="20" t="s">
-        <v>793</v>
+        <v>810</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>794</v>
+        <v>811</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="H19" s="12" t="n">
         <v>3</v>
@@ -9842,13 +9989,13 @@
         <v>143</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>795</v>
+        <v>812</v>
       </c>
       <c r="F20" s="20" t="s">
+        <v>813</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>796</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>779</v>
       </c>
       <c r="H20" s="12" t="n">
         <v>3</v>
@@ -9857,7 +10004,7 @@
         <v>143</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9865,13 +10012,13 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="20" t="s">
-        <v>793</v>
+        <v>810</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>794</v>
+        <v>811</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="H21" s="12" t="n">
         <v>3</v>
@@ -9880,7 +10027,7 @@
       <c r="K21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="21" t="s">
         <v>370</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -9893,25 +10040,25 @@
         <v>21</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>797</v>
+        <v>814</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>798</v>
+        <v>815</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>81</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>783</v>
+        <v>800</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>799</v>
+        <v>816</v>
       </c>
       <c r="J22" s="12" t="s">
         <v>21</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>800</v>
+        <v>817</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9928,13 +10075,13 @@
         <v>26</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>795</v>
+        <v>812</v>
       </c>
       <c r="F23" s="20" t="s">
+        <v>813</v>
+      </c>
+      <c r="G23" s="20" t="s">
         <v>796</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>779</v>
       </c>
       <c r="H23" s="12" t="n">
         <v>3</v>
@@ -9943,7 +10090,7 @@
         <v>26</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9960,13 +10107,13 @@
         <v>517</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="H24" s="12" t="n">
         <v>3</v>
@@ -9975,7 +10122,7 @@
         <v>517</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9992,13 +10139,13 @@
         <v>143</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>795</v>
+        <v>812</v>
       </c>
       <c r="F25" s="20" t="s">
+        <v>813</v>
+      </c>
+      <c r="G25" s="20" t="s">
         <v>796</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>779</v>
       </c>
       <c r="H25" s="12" t="n">
         <v>3</v>
@@ -10007,7 +10154,7 @@
         <v>143</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10024,13 +10171,13 @@
         <v>21</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>802</v>
+        <v>819</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="H26" s="12" t="n">
         <v>3</v>
@@ -10039,7 +10186,7 @@
         <v>21</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10056,7 +10203,7 @@
         <v>21</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>781</v>
+        <v>798</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
@@ -10065,7 +10212,7 @@
         <v>21</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>782</v>
+        <v>799</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10082,7 +10229,7 @@
         <v>21</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>781</v>
+        <v>798</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
@@ -10091,7 +10238,7 @@
         <v>21</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>782</v>
+        <v>799</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10108,13 +10255,13 @@
         <v>26</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>795</v>
+        <v>812</v>
       </c>
       <c r="F29" s="20" t="s">
+        <v>813</v>
+      </c>
+      <c r="G29" s="20" t="s">
         <v>796</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>779</v>
       </c>
       <c r="H29" s="12" t="n">
         <v>3</v>
@@ -10123,7 +10270,7 @@
         <v>26</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10140,13 +10287,13 @@
         <v>26</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>795</v>
+        <v>812</v>
       </c>
       <c r="F30" s="20" t="s">
+        <v>813</v>
+      </c>
+      <c r="G30" s="20" t="s">
         <v>796</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>779</v>
       </c>
       <c r="H30" s="12" t="n">
         <v>3</v>
@@ -10155,7 +10302,7 @@
         <v>26</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10172,13 +10319,13 @@
         <v>517</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="H31" s="12" t="n">
         <v>3</v>
@@ -10187,7 +10334,7 @@
         <v>517</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10204,13 +10351,13 @@
         <v>143</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>790</v>
+        <v>807</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>791</v>
+        <v>808</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="H32" s="12" t="n">
         <v>3</v>
@@ -10219,129 +10366,129 @@
         <v>143</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E33" s="20" t="s">
-        <v>793</v>
+        <v>810</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>794</v>
+        <v>811</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="H33" s="12" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="26" t="s">
-        <v>803</v>
+      <c r="A38" s="25" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="27" t="s">
-        <v>804</v>
+      <c r="A39" s="26" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>805</v>
+        <v>822</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>806</v>
+        <v>823</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="26" t="s">
-        <v>773</v>
+      <c r="A43" s="25" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>807</v>
+        <v>824</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>809</v>
+        <v>826</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="26" t="s">
-        <v>810</v>
+      <c r="A49" s="25" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="28" t="s">
-        <v>811</v>
+      <c r="A51" s="27" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="29" t="s">
-        <v>812</v>
+      <c r="A52" s="26" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="30" t="s">
-        <v>813</v>
+      <c r="A53" s="28" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="29" t="s">
-        <v>814</v>
+      <c r="A54" s="26" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="29" t="s">
-        <v>815</v>
+      <c r="A55" s="26" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="31"/>
+      <c r="A56" s="29"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="32" t="s">
-        <v>816</v>
+      <c r="A57" s="30" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="29" t="s">
-        <v>817</v>
+      <c r="A58" s="26" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="33" t="s">
-        <v>818</v>
+      <c r="A59" s="31" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>813</v>
+        <v>830</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>819</v>
+        <v>836</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="17" t="s">
-        <v>820</v>
+      <c r="A63" s="18" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="33" t="s">
-        <v>821</v>
+      <c r="A64" s="31" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/shanoir-ng-anonymization/src/main/resources/anonymization.xlsx
+++ b/shanoir-ng-anonymization/src/main/resources/anonymization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="991"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21940" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -3321,8 +3321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="B252" workbookViewId="0">
+      <selection activeCell="F265" sqref="F265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7939,7 +7939,7 @@
         <v>12</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="265" spans="1:6">

--- a/shanoir-ng-anonymization/src/main/resources/anonymization.xlsx
+++ b/shanoir-ng-anonymization/src/main/resources/anonymization.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="991" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22160" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Profiles" sheetId="1" r:id="rId1"/>
-    <sheet name="Legend" sheetId="3" r:id="rId2"/>
-    <sheet name="DeletePrivateTags" sheetId="2" r:id="rId3"/>
+    <sheet name="TagsToDeleteForManufacturer" sheetId="5" r:id="rId2"/>
+    <sheet name="Legend" sheetId="3" r:id="rId3"/>
     <sheet name="Analysis for Profile MR" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="828">
   <si>
     <t>Attribute Name</t>
   </si>
@@ -1585,9 +1585,6 @@
   </si>
   <si>
     <t>0x001021C0</t>
-  </si>
-  <si>
-    <t>Private attributes</t>
   </si>
   <si>
     <t>(gggg,eeee)
@@ -2770,6 +2767,21 @@
   </si>
   <si>
     <t>Hint: insert a new profile with adding a column "Profile XXX"; in yellow all differences to Supp. 142 - Basic Profile</t>
+  </si>
+  <si>
+    <t>Private Tags</t>
+  </si>
+  <si>
+    <t>SIEMENS</t>
+  </si>
+  <si>
+    <t>0x00xxxxxx</t>
+  </si>
+  <si>
+    <t>Example below:</t>
+  </si>
+  <si>
+    <t>Use columns A and B: A=Manufacturer (equal to writing in DICOM files) B=Tag to delete in format 0x00101010</t>
   </si>
 </sst>
 </file>
@@ -2923,7 +2935,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2942,8 +2954,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3024,8 +3052,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="34">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -3035,6 +3066,14 @@
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -3043,6 +3082,14 @@
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3442,8 +3489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G309"/>
   <sheetViews>
-    <sheetView topLeftCell="A159" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3468,21 +3515,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>821</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28">
       <c r="A2" s="31" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B2"/>
     </row>
@@ -7462,36 +7509,36 @@
     </row>
     <row r="202" spans="1:7" ht="42">
       <c r="A202" t="s">
+        <v>823</v>
+      </c>
+      <c r="B202" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="B202" s="11" t="s">
+      <c r="C202" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="C202" s="5" t="s">
-        <v>492</v>
-      </c>
       <c r="D202" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F202" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G202" s="5" t="s">
-        <v>11</v>
+      <c r="F202" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G202" s="26" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
+        <v>492</v>
+      </c>
+      <c r="B203" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="C203" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>495</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>23</v>
@@ -7508,13 +7555,13 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
+        <v>495</v>
+      </c>
+      <c r="B204" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="C204" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="C204" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="D204" s="5" t="s">
         <v>11</v>
@@ -7531,13 +7578,13 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
+        <v>498</v>
+      </c>
+      <c r="B205" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="C205" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="C205" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="D205" s="5" t="s">
         <v>11</v>
@@ -7554,13 +7601,13 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B206" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="C206" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="C206" s="5" t="s">
-        <v>504</v>
       </c>
       <c r="D206" s="5" t="s">
         <v>11</v>
@@ -7577,13 +7624,13 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B207" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="C207" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>507</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>78</v>
@@ -7600,13 +7647,13 @@
     </row>
     <row r="208" spans="1:7" ht="28">
       <c r="A208" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="B208" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="C208" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="C208" s="5" t="s">
-        <v>510</v>
       </c>
       <c r="D208" s="5" t="s">
         <v>78</v>
@@ -7623,16 +7670,16 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="B209" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="C209" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="C209" s="5" t="s">
+      <c r="D209" s="5" t="s">
         <v>513</v>
-      </c>
-      <c r="D209" s="5" t="s">
-        <v>514</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>11</v>
@@ -7670,13 +7717,13 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B213" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="C213" s="5" t="s">
         <v>516</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>517</v>
       </c>
       <c r="D213" s="5" t="s">
         <v>11</v>
@@ -7693,13 +7740,13 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="B214" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="C214" s="5" t="s">
         <v>519</v>
-      </c>
-      <c r="C214" s="5" t="s">
-        <v>520</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>11</v>
@@ -7716,13 +7763,13 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B215" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="C215" s="5" t="s">
         <v>522</v>
-      </c>
-      <c r="C215" s="5" t="s">
-        <v>523</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>140</v>
@@ -7739,13 +7786,13 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
+        <v>523</v>
+      </c>
+      <c r="B216" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="C216" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="C216" s="5" t="s">
-        <v>526</v>
       </c>
       <c r="D216" s="5" t="s">
         <v>11</v>
@@ -7762,13 +7809,13 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B217" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="C217" s="5" t="s">
         <v>528</v>
-      </c>
-      <c r="C217" s="5" t="s">
-        <v>529</v>
       </c>
       <c r="D217" s="5" t="s">
         <v>78</v>
@@ -7785,13 +7832,13 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="B218" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="C218" s="5" t="s">
         <v>531</v>
-      </c>
-      <c r="C218" s="5" t="s">
-        <v>532</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>78</v>
@@ -7808,13 +7855,13 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B219" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="C219" s="5" t="s">
         <v>534</v>
-      </c>
-      <c r="C219" s="5" t="s">
-        <v>535</v>
       </c>
       <c r="D219" s="5" t="s">
         <v>18</v>
@@ -7831,13 +7878,13 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B220" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="C220" s="5" t="s">
         <v>537</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>538</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>11</v>
@@ -7854,13 +7901,13 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="B221" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="C221" s="5" t="s">
         <v>540</v>
-      </c>
-      <c r="C221" s="5" t="s">
-        <v>541</v>
       </c>
       <c r="D221" s="5" t="s">
         <v>11</v>
@@ -7893,13 +7940,13 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="B224" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="C224" s="5" t="s">
         <v>543</v>
-      </c>
-      <c r="C224" s="5" t="s">
-        <v>544</v>
       </c>
       <c r="D224" s="5" t="s">
         <v>7</v>
@@ -7916,13 +7963,13 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B225" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="C225" s="5" t="s">
         <v>546</v>
-      </c>
-      <c r="C225" s="5" t="s">
-        <v>547</v>
       </c>
       <c r="D225" s="5" t="s">
         <v>11</v>
@@ -7939,13 +7986,13 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
+        <v>547</v>
+      </c>
+      <c r="B226" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="B226" s="4" t="s">
+      <c r="C226" s="5" t="s">
         <v>549</v>
-      </c>
-      <c r="C226" s="5" t="s">
-        <v>550</v>
       </c>
       <c r="D226" s="5" t="s">
         <v>11</v>
@@ -7962,13 +8009,13 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
+        <v>550</v>
+      </c>
+      <c r="B227" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="C227" s="5" t="s">
         <v>552</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>553</v>
       </c>
       <c r="D227" s="5" t="s">
         <v>78</v>
@@ -7985,13 +8032,13 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B228" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="C228" s="5" t="s">
         <v>555</v>
-      </c>
-      <c r="C228" s="5" t="s">
-        <v>556</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>11</v>
@@ -8008,13 +8055,13 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B229" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="C229" s="5" t="s">
         <v>558</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>559</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>11</v>
@@ -8031,13 +8078,13 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="B230" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="C230" s="5" t="s">
         <v>561</v>
-      </c>
-      <c r="C230" s="5" t="s">
-        <v>562</v>
       </c>
       <c r="D230" s="5" t="s">
         <v>11</v>
@@ -8054,13 +8101,13 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
+        <v>562</v>
+      </c>
+      <c r="B231" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="C231" s="5" t="s">
         <v>564</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>565</v>
       </c>
       <c r="D231" s="5" t="s">
         <v>18</v>
@@ -8077,13 +8124,13 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="B232" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="C232" s="5" t="s">
         <v>567</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>568</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>11</v>
@@ -8100,13 +8147,13 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="B233" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="C233" s="5" t="s">
         <v>570</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>571</v>
       </c>
       <c r="D233" s="5" t="s">
         <v>11</v>
@@ -8147,13 +8194,13 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="B237" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="C237" s="5" t="s">
         <v>573</v>
-      </c>
-      <c r="C237" s="5" t="s">
-        <v>574</v>
       </c>
       <c r="D237" s="5" t="s">
         <v>78</v>
@@ -8170,13 +8217,13 @@
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B238" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="C238" s="5" t="s">
         <v>576</v>
-      </c>
-      <c r="C238" s="5" t="s">
-        <v>577</v>
       </c>
       <c r="D238" s="5" t="s">
         <v>11</v>
@@ -8193,13 +8240,13 @@
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="B239" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="C239" s="5" t="s">
         <v>579</v>
-      </c>
-      <c r="C239" s="5" t="s">
-        <v>580</v>
       </c>
       <c r="D239" s="5" t="s">
         <v>11</v>
@@ -8216,13 +8263,13 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="B240" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="C240" s="5" t="s">
         <v>582</v>
-      </c>
-      <c r="C240" s="5" t="s">
-        <v>583</v>
       </c>
       <c r="D240" s="5" t="s">
         <v>11</v>
@@ -8239,13 +8286,13 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="B241" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="C241" s="5" t="s">
         <v>585</v>
-      </c>
-      <c r="C241" s="5" t="s">
-        <v>586</v>
       </c>
       <c r="D241" s="5" t="s">
         <v>11</v>
@@ -8262,13 +8309,13 @@
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="B242" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="C242" s="5" t="s">
         <v>588</v>
-      </c>
-      <c r="C242" s="5" t="s">
-        <v>589</v>
       </c>
       <c r="D242" s="5" t="s">
         <v>11</v>
@@ -8285,13 +8332,13 @@
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
+        <v>589</v>
+      </c>
+      <c r="B243" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="C243" s="5" t="s">
         <v>591</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>592</v>
       </c>
       <c r="D243" s="5" t="s">
         <v>11</v>
@@ -8308,13 +8355,13 @@
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
+        <v>592</v>
+      </c>
+      <c r="B244" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="C244" s="5" t="s">
         <v>594</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>595</v>
       </c>
       <c r="D244" s="5" t="s">
         <v>11</v>
@@ -8331,13 +8378,13 @@
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="B245" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="C245" s="5" t="s">
         <v>597</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>598</v>
       </c>
       <c r="D245" s="5" t="s">
         <v>18</v>
@@ -8354,13 +8401,13 @@
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="B246" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="C246" s="5" t="s">
         <v>600</v>
-      </c>
-      <c r="C246" s="5" t="s">
-        <v>601</v>
       </c>
       <c r="D246" s="5" t="s">
         <v>11</v>
@@ -8377,13 +8424,13 @@
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="B247" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="B247" s="4" t="s">
+      <c r="C247" s="5" t="s">
         <v>603</v>
-      </c>
-      <c r="C247" s="5" t="s">
-        <v>604</v>
       </c>
       <c r="D247" s="5" t="s">
         <v>11</v>
@@ -8425,13 +8472,13 @@
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="B251" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="C251" s="5" t="s">
         <v>606</v>
-      </c>
-      <c r="C251" s="5" t="s">
-        <v>607</v>
       </c>
       <c r="D251" s="5" t="s">
         <v>11</v>
@@ -8448,13 +8495,13 @@
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="B252" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="B252" s="4" t="s">
+      <c r="C252" s="5" t="s">
         <v>609</v>
-      </c>
-      <c r="C252" s="5" t="s">
-        <v>610</v>
       </c>
       <c r="D252" s="5" t="s">
         <v>11</v>
@@ -8471,13 +8518,13 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="B253" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="C253" s="5" t="s">
         <v>612</v>
-      </c>
-      <c r="C253" s="5" t="s">
-        <v>613</v>
       </c>
       <c r="D253" s="5" t="s">
         <v>11</v>
@@ -8494,13 +8541,13 @@
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
+        <v>613</v>
+      </c>
+      <c r="B254" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="C254" s="5" t="s">
         <v>615</v>
-      </c>
-      <c r="C254" s="5" t="s">
-        <v>616</v>
       </c>
       <c r="D254" s="5" t="s">
         <v>11</v>
@@ -8517,13 +8564,13 @@
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="B255" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="C255" s="5" t="s">
         <v>618</v>
-      </c>
-      <c r="C255" s="5" t="s">
-        <v>619</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>11</v>
@@ -8540,13 +8587,13 @@
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="B256" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="B256" s="4" t="s">
+      <c r="C256" s="5" t="s">
         <v>621</v>
-      </c>
-      <c r="C256" s="5" t="s">
-        <v>622</v>
       </c>
       <c r="D256" s="5" t="s">
         <v>11</v>
@@ -8563,13 +8610,13 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="B257" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="B257" s="4" t="s">
+      <c r="C257" s="5" t="s">
         <v>624</v>
-      </c>
-      <c r="C257" s="5" t="s">
-        <v>625</v>
       </c>
       <c r="D257" s="5" t="s">
         <v>11</v>
@@ -8586,13 +8633,13 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
+        <v>625</v>
+      </c>
+      <c r="B258" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="B258" s="4" t="s">
+      <c r="C258" s="5" t="s">
         <v>627</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>628</v>
       </c>
       <c r="D258" s="5" t="s">
         <v>11</v>
@@ -8633,13 +8680,13 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="B262" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="C262" s="5" t="s">
         <v>630</v>
-      </c>
-      <c r="C262" s="5" t="s">
-        <v>631</v>
       </c>
       <c r="D262" s="5" t="s">
         <v>11</v>
@@ -8656,13 +8703,13 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="B263" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="B263" s="4" t="s">
+      <c r="C263" s="5" t="s">
         <v>633</v>
-      </c>
-      <c r="C263" s="5" t="s">
-        <v>634</v>
       </c>
       <c r="D263" s="5" t="s">
         <v>11</v>
@@ -8679,13 +8726,13 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
+        <v>634</v>
+      </c>
+      <c r="B264" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="B264" s="4" t="s">
+      <c r="C264" s="5" t="s">
         <v>636</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>637</v>
       </c>
       <c r="D264" s="5" t="s">
         <v>11</v>
@@ -8702,13 +8749,13 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
+        <v>637</v>
+      </c>
+      <c r="B265" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="B265" s="4" t="s">
+      <c r="C265" s="5" t="s">
         <v>639</v>
-      </c>
-      <c r="C265" s="5" t="s">
-        <v>640</v>
       </c>
       <c r="D265" s="5" t="s">
         <v>11</v>
@@ -8725,13 +8772,13 @@
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
+        <v>640</v>
+      </c>
+      <c r="B266" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="C266" s="5" t="s">
         <v>642</v>
-      </c>
-      <c r="C266" s="5" t="s">
-        <v>643</v>
       </c>
       <c r="D266" s="5" t="s">
         <v>11</v>
@@ -8748,13 +8795,13 @@
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
+        <v>643</v>
+      </c>
+      <c r="B267" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="C267" s="5" t="s">
         <v>645</v>
-      </c>
-      <c r="C267" s="5" t="s">
-        <v>646</v>
       </c>
       <c r="D267" s="5" t="s">
         <v>11</v>
@@ -8771,13 +8818,13 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
+        <v>646</v>
+      </c>
+      <c r="B268" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="B268" s="4" t="s">
+      <c r="C268" s="5" t="s">
         <v>648</v>
-      </c>
-      <c r="C268" s="5" t="s">
-        <v>649</v>
       </c>
       <c r="D268" s="5" t="s">
         <v>23</v>
@@ -8794,13 +8841,13 @@
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="28" t="s">
+        <v>649</v>
+      </c>
+      <c r="B269" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="B269" s="4" t="s">
+      <c r="C269" s="5" t="s">
         <v>651</v>
-      </c>
-      <c r="C269" s="5" t="s">
-        <v>652</v>
       </c>
       <c r="D269" s="5" t="s">
         <v>11</v>
@@ -8817,13 +8864,13 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
+        <v>652</v>
+      </c>
+      <c r="B270" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="C270" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="C270" s="5" t="s">
-        <v>655</v>
       </c>
       <c r="D270" s="5" t="s">
         <v>78</v>
@@ -8840,13 +8887,13 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="28" t="s">
+        <v>655</v>
+      </c>
+      <c r="B271" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="C271" s="5" t="s">
         <v>657</v>
-      </c>
-      <c r="C271" s="5" t="s">
-        <v>658</v>
       </c>
       <c r="D271" s="5" t="s">
         <v>23</v>
@@ -8863,13 +8910,13 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="B272" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="B272" s="4" t="s">
+      <c r="C272" s="5" t="s">
         <v>660</v>
-      </c>
-      <c r="C272" s="5" t="s">
-        <v>661</v>
       </c>
       <c r="D272" s="5" t="s">
         <v>11</v>
@@ -8886,13 +8933,13 @@
     </row>
     <row r="273" spans="1:7">
       <c r="A273" t="s">
+        <v>661</v>
+      </c>
+      <c r="B273" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="B273" s="4" t="s">
+      <c r="C273" s="5" t="s">
         <v>663</v>
-      </c>
-      <c r="C273" s="5" t="s">
-        <v>664</v>
       </c>
       <c r="D273" s="5" t="s">
         <v>11</v>
@@ -8909,13 +8956,13 @@
     </row>
     <row r="274" spans="1:7">
       <c r="A274" t="s">
+        <v>664</v>
+      </c>
+      <c r="B274" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="B274" s="4" t="s">
+      <c r="C274" s="5" t="s">
         <v>666</v>
-      </c>
-      <c r="C274" s="5" t="s">
-        <v>667</v>
       </c>
       <c r="D274" s="5" t="s">
         <v>11</v>
@@ -8932,13 +8979,13 @@
     </row>
     <row r="275" spans="1:7">
       <c r="A275" t="s">
+        <v>667</v>
+      </c>
+      <c r="B275" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="B275" s="4" t="s">
+      <c r="C275" s="5" t="s">
         <v>669</v>
-      </c>
-      <c r="C275" s="5" t="s">
-        <v>670</v>
       </c>
       <c r="D275" s="5" t="s">
         <v>78</v>
@@ -8979,16 +9026,16 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279" t="s">
+        <v>670</v>
+      </c>
+      <c r="B279" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="B279" s="4" t="s">
+      <c r="C279" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="C279" s="5" t="s">
-        <v>673</v>
-      </c>
       <c r="D279" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E279" s="5" t="s">
         <v>11</v>
@@ -9002,13 +9049,13 @@
     </row>
     <row r="280" spans="1:7">
       <c r="A280" t="s">
+        <v>673</v>
+      </c>
+      <c r="B280" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="B280" s="4" t="s">
+      <c r="C280" s="5" t="s">
         <v>675</v>
-      </c>
-      <c r="C280" s="5" t="s">
-        <v>676</v>
       </c>
       <c r="D280" s="5" t="s">
         <v>11</v>
@@ -9025,13 +9072,13 @@
     </row>
     <row r="281" spans="1:7">
       <c r="A281" t="s">
+        <v>676</v>
+      </c>
+      <c r="B281" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="B281" s="4" t="s">
+      <c r="C281" s="5" t="s">
         <v>678</v>
-      </c>
-      <c r="C281" s="5" t="s">
-        <v>679</v>
       </c>
       <c r="D281" s="5" t="s">
         <v>140</v>
@@ -9048,13 +9095,13 @@
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="B282" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="B282" s="4" t="s">
+      <c r="C282" s="5" t="s">
         <v>681</v>
-      </c>
-      <c r="C282" s="5" t="s">
-        <v>682</v>
       </c>
       <c r="D282" s="5" t="s">
         <v>78</v>
@@ -9071,13 +9118,13 @@
     </row>
     <row r="283" spans="1:7">
       <c r="A283" t="s">
+        <v>682</v>
+      </c>
+      <c r="B283" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="B283" s="4" t="s">
+      <c r="C283" s="5" t="s">
         <v>684</v>
-      </c>
-      <c r="C283" s="5" t="s">
-        <v>685</v>
       </c>
       <c r="D283" s="5" t="s">
         <v>11</v>
@@ -9094,13 +9141,13 @@
     </row>
     <row r="284" spans="1:7">
       <c r="A284" s="28" t="s">
+        <v>685</v>
+      </c>
+      <c r="B284" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="B284" s="4" t="s">
+      <c r="C284" s="5" t="s">
         <v>687</v>
-      </c>
-      <c r="C284" s="5" t="s">
-        <v>688</v>
       </c>
       <c r="D284" s="5" t="s">
         <v>7</v>
@@ -9117,13 +9164,13 @@
     </row>
     <row r="285" spans="1:7">
       <c r="A285" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="B285" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="B285" s="4" t="s">
+      <c r="C285" s="5" t="s">
         <v>690</v>
-      </c>
-      <c r="C285" s="5" t="s">
-        <v>691</v>
       </c>
       <c r="D285" s="5" t="s">
         <v>11</v>
@@ -9140,13 +9187,13 @@
     </row>
     <row r="286" spans="1:7">
       <c r="A286" t="s">
+        <v>691</v>
+      </c>
+      <c r="B286" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="B286" s="4" t="s">
+      <c r="C286" s="5" t="s">
         <v>693</v>
-      </c>
-      <c r="C286" s="5" t="s">
-        <v>694</v>
       </c>
       <c r="D286" s="5" t="s">
         <v>7</v>
@@ -9163,13 +9210,13 @@
     </row>
     <row r="287" spans="1:7">
       <c r="A287" t="s">
+        <v>694</v>
+      </c>
+      <c r="B287" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="B287" s="4" t="s">
+      <c r="C287" s="5" t="s">
         <v>696</v>
-      </c>
-      <c r="C287" s="5" t="s">
-        <v>697</v>
       </c>
       <c r="D287" s="5" t="s">
         <v>11</v>
@@ -9186,13 +9233,13 @@
     </row>
     <row r="288" spans="1:7">
       <c r="A288" t="s">
+        <v>697</v>
+      </c>
+      <c r="B288" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="B288" s="4" t="s">
+      <c r="C288" s="5" t="s">
         <v>699</v>
-      </c>
-      <c r="C288" s="5" t="s">
-        <v>700</v>
       </c>
       <c r="D288" s="5" t="s">
         <v>78</v>
@@ -9209,13 +9256,13 @@
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="28" t="s">
+        <v>700</v>
+      </c>
+      <c r="B289" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="B289" s="4" t="s">
+      <c r="C289" s="5" t="s">
         <v>702</v>
-      </c>
-      <c r="C289" s="5" t="s">
-        <v>703</v>
       </c>
       <c r="D289" s="5" t="s">
         <v>7</v>
@@ -9232,13 +9279,13 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="B290" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="B290" s="4" t="s">
+      <c r="C290" s="5" t="s">
         <v>705</v>
-      </c>
-      <c r="C290" s="5" t="s">
-        <v>706</v>
       </c>
       <c r="D290" s="5" t="s">
         <v>78</v>
@@ -9255,13 +9302,13 @@
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
+        <v>706</v>
+      </c>
+      <c r="B291" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="B291" s="4" t="s">
+      <c r="C291" s="5" t="s">
         <v>708</v>
-      </c>
-      <c r="C291" s="5" t="s">
-        <v>709</v>
       </c>
       <c r="D291" s="5" t="s">
         <v>78</v>
@@ -9278,13 +9325,13 @@
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
+        <v>709</v>
+      </c>
+      <c r="B292" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="B292" s="4" t="s">
+      <c r="C292" s="5" t="s">
         <v>711</v>
-      </c>
-      <c r="C292" s="5" t="s">
-        <v>712</v>
       </c>
       <c r="D292" s="5" t="s">
         <v>78</v>
@@ -9301,13 +9348,13 @@
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
+        <v>712</v>
+      </c>
+      <c r="B293" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="B293" s="4" t="s">
+      <c r="C293" s="5" t="s">
         <v>714</v>
-      </c>
-      <c r="C293" s="5" t="s">
-        <v>715</v>
       </c>
       <c r="D293" s="5" t="s">
         <v>11</v>
@@ -9348,13 +9395,13 @@
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
+        <v>715</v>
+      </c>
+      <c r="B297" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="B297" s="4" t="s">
+      <c r="C297" s="5" t="s">
         <v>717</v>
-      </c>
-      <c r="C297" s="5" t="s">
-        <v>718</v>
       </c>
       <c r="D297" s="5" t="s">
         <v>11</v>
@@ -9371,13 +9418,13 @@
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
+        <v>718</v>
+      </c>
+      <c r="B298" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="B298" s="4" t="s">
+      <c r="C298" s="5" t="s">
         <v>720</v>
-      </c>
-      <c r="C298" s="5" t="s">
-        <v>721</v>
       </c>
       <c r="D298" s="5" t="s">
         <v>11</v>
@@ -9394,13 +9441,13 @@
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
+        <v>721</v>
+      </c>
+      <c r="B299" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="B299" s="4" t="s">
+      <c r="C299" s="5" t="s">
         <v>723</v>
-      </c>
-      <c r="C299" s="5" t="s">
-        <v>724</v>
       </c>
       <c r="D299" s="5" t="s">
         <v>11</v>
@@ -9417,13 +9464,13 @@
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
+        <v>724</v>
+      </c>
+      <c r="B300" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="B300" s="4" t="s">
+      <c r="C300" s="5" t="s">
         <v>726</v>
-      </c>
-      <c r="C300" s="5" t="s">
-        <v>727</v>
       </c>
       <c r="D300" s="5" t="s">
         <v>11</v>
@@ -9440,13 +9487,13 @@
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
+        <v>727</v>
+      </c>
+      <c r="B301" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="B301" s="4" t="s">
+      <c r="C301" s="5" t="s">
         <v>729</v>
-      </c>
-      <c r="C301" s="5" t="s">
-        <v>730</v>
       </c>
       <c r="D301" s="5" t="s">
         <v>11</v>
@@ -9463,13 +9510,13 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
+        <v>730</v>
+      </c>
+      <c r="B302" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="B302" s="4" t="s">
+      <c r="C302" s="5" t="s">
         <v>732</v>
-      </c>
-      <c r="C302" s="5" t="s">
-        <v>733</v>
       </c>
       <c r="D302" s="5" t="s">
         <v>11</v>
@@ -9486,13 +9533,13 @@
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
+        <v>733</v>
+      </c>
+      <c r="B303" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="B303" s="4" t="s">
+      <c r="C303" s="5" t="s">
         <v>735</v>
-      </c>
-      <c r="C303" s="5" t="s">
-        <v>736</v>
       </c>
       <c r="D303" s="5" t="s">
         <v>78</v>
@@ -9509,13 +9556,13 @@
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
+        <v>736</v>
+      </c>
+      <c r="B304" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="B304" s="4" t="s">
+      <c r="C304" s="5" t="s">
         <v>738</v>
-      </c>
-      <c r="C304" s="5" t="s">
-        <v>739</v>
       </c>
       <c r="D304" s="5" t="s">
         <v>78</v>
@@ -9532,13 +9579,13 @@
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
+        <v>739</v>
+      </c>
+      <c r="B305" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="B305" s="4" t="s">
+      <c r="C305" s="5" t="s">
         <v>741</v>
-      </c>
-      <c r="C305" s="5" t="s">
-        <v>742</v>
       </c>
       <c r="D305" s="5" t="s">
         <v>7</v>
@@ -9555,13 +9602,13 @@
     </row>
     <row r="306" spans="1:7">
       <c r="A306" t="s">
+        <v>742</v>
+      </c>
+      <c r="B306" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="B306" s="4" t="s">
+      <c r="C306" s="5" t="s">
         <v>744</v>
-      </c>
-      <c r="C306" s="5" t="s">
-        <v>745</v>
       </c>
       <c r="D306" s="5" t="s">
         <v>192</v>
@@ -9578,13 +9625,13 @@
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="s">
+        <v>745</v>
+      </c>
+      <c r="B307" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="B307" s="4" t="s">
+      <c r="C307" s="5" t="s">
         <v>747</v>
-      </c>
-      <c r="C307" s="5" t="s">
-        <v>748</v>
       </c>
       <c r="D307" s="5" t="s">
         <v>192</v>
@@ -9601,13 +9648,13 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308" t="s">
+        <v>748</v>
+      </c>
+      <c r="B308" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="B308" s="4" t="s">
+      <c r="C308" s="5" t="s">
         <v>750</v>
-      </c>
-      <c r="C308" s="5" t="s">
-        <v>751</v>
       </c>
       <c r="D308" s="5" t="s">
         <v>11</v>
@@ -9624,13 +9671,13 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
+        <v>751</v>
+      </c>
+      <c r="B309" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="B309" s="4" t="s">
+      <c r="C309" s="5" t="s">
         <v>753</v>
-      </c>
-      <c r="C309" s="5" t="s">
-        <v>754</v>
       </c>
       <c r="D309" s="5" t="s">
         <v>11</v>
@@ -9647,6 +9694,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -9657,6 +9705,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="33.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:4" ht="42">
+      <c r="C1" s="32" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4">
+      <c r="C2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4">
+      <c r="C3" t="s">
+        <v>824</v>
+      </c>
+      <c r="D3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D4" t="s">
+        <v>825</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -9671,7 +9767,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9679,7 +9775,7 @@
         <v>192</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9687,7 +9783,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9695,7 +9791,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9703,15 +9799,15 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>759</v>
+      </c>
+      <c r="B7" t="s">
         <v>760</v>
-      </c>
-      <c r="B7" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9719,7 +9815,7 @@
         <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9727,7 +9823,7 @@
         <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9735,7 +9831,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9743,7 +9839,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -9751,46 +9847,19 @@
         <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B13" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9803,7 +9872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -9835,22 +9904,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>772</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -9867,13 +9936,13 @@
         <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>775</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>776</v>
       </c>
       <c r="H5" s="5">
         <v>3</v>
@@ -9882,7 +9951,7 @@
         <v>18</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -9899,13 +9968,13 @@
         <v>23</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="14" t="s">
         <v>775</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>776</v>
       </c>
       <c r="H6" s="9">
         <v>3</v>
@@ -9914,7 +9983,7 @@
         <v>23</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -9931,7 +10000,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -9940,7 +10009,7 @@
         <v>23</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -9957,13 +10026,13 @@
         <v>18</v>
       </c>
       <c r="E8" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="G8" s="14" t="s">
         <v>775</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>776</v>
       </c>
       <c r="H8" s="9">
         <v>3</v>
@@ -9972,7 +10041,7 @@
         <v>18</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="84">
@@ -9989,25 +10058,25 @@
         <v>91</v>
       </c>
       <c r="E9" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="G9" s="17" t="s">
         <v>775</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>776</v>
-      </c>
       <c r="H9" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>780</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>781</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>91</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="56">
@@ -10024,25 +10093,25 @@
         <v>91</v>
       </c>
       <c r="E10" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="17" t="s">
         <v>775</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>776</v>
-      </c>
       <c r="H10" s="17" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>91</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -10059,13 +10128,13 @@
         <v>91</v>
       </c>
       <c r="E11" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>784</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="G11" s="15" t="s">
         <v>785</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>786</v>
       </c>
       <c r="H11" s="18">
         <v>2</v>
@@ -10074,7 +10143,7 @@
         <v>91</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -10091,13 +10160,13 @@
         <v>140</v>
       </c>
       <c r="E12" s="14" t="s">
+        <v>786</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>787</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>788</v>
-      </c>
       <c r="G12" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H12" s="9">
         <v>3</v>
@@ -10106,7 +10175,7 @@
         <v>140</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -10129,7 +10198,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>224</v>
@@ -10141,7 +10210,7 @@
         <v>140</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -10150,7 +10219,7 @@
         <v>140</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -10167,13 +10236,13 @@
         <v>140</v>
       </c>
       <c r="E16" s="14" t="s">
+        <v>786</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>787</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>788</v>
-      </c>
       <c r="G16" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H16" s="9">
         <v>3</v>
@@ -10182,7 +10251,7 @@
         <v>140</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -10190,13 +10259,13 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>790</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>791</v>
-      </c>
       <c r="G17" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H17" s="9">
         <v>3</v>
@@ -10218,13 +10287,13 @@
         <v>23</v>
       </c>
       <c r="E18" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>792</v>
       </c>
-      <c r="F18" s="14" t="s">
-        <v>793</v>
-      </c>
       <c r="G18" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H18" s="9">
         <v>3</v>
@@ -10233,7 +10302,7 @@
         <v>23</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -10241,13 +10310,13 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>790</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>791</v>
-      </c>
       <c r="G19" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H19" s="9">
         <v>3</v>
@@ -10269,13 +10338,13 @@
         <v>140</v>
       </c>
       <c r="E20" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>792</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>793</v>
-      </c>
       <c r="G20" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H20" s="9">
         <v>3</v>
@@ -10284,7 +10353,7 @@
         <v>140</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -10292,13 +10361,13 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>790</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>791</v>
-      </c>
       <c r="G21" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H21" s="9">
         <v>3</v>
@@ -10320,48 +10389,48 @@
         <v>18</v>
       </c>
       <c r="E22" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>794</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="G22" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>795</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>780</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>796</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>18</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
+        <v>492</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>495</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>792</v>
       </c>
-      <c r="F23" s="14" t="s">
-        <v>793</v>
-      </c>
       <c r="G23" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H23" s="9">
         <v>3</v>
@@ -10370,62 +10439,62 @@
         <v>23</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>514</v>
-      </c>
       <c r="E24" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="G24" s="14" t="s">
         <v>775</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>776</v>
       </c>
       <c r="H24" s="9">
         <v>3</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="9" t="s">
         <v>522</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>523</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E25" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="F25" s="14" t="s">
         <v>792</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>793</v>
-      </c>
       <c r="G25" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H25" s="9">
         <v>3</v>
@@ -10434,30 +10503,30 @@
         <v>140</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>534</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>535</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>798</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>799</v>
-      </c>
       <c r="G26" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H26" s="9">
         <v>3</v>
@@ -10466,24 +10535,24 @@
         <v>18</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
+        <v>562</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>564</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>565</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -10492,24 +10561,24 @@
         <v>18</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>597</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>598</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -10518,30 +10587,30 @@
         <v>18</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
+        <v>646</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>648</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>649</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="F29" s="14" t="s">
         <v>792</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>793</v>
-      </c>
       <c r="G29" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H29" s="9">
         <v>3</v>
@@ -10550,30 +10619,30 @@
         <v>23</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
+        <v>655</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>657</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>658</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>792</v>
       </c>
-      <c r="F30" s="14" t="s">
-        <v>793</v>
-      </c>
       <c r="G30" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H30" s="9">
         <v>3</v>
@@ -10582,62 +10651,62 @@
         <v>23</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
+        <v>670</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>673</v>
-      </c>
       <c r="D31" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E31" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="F31" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="G31" s="14" t="s">
         <v>775</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>776</v>
       </c>
       <c r="H31" s="9">
         <v>3</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
+        <v>676</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>678</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>679</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>140</v>
       </c>
       <c r="E32" s="14" t="s">
+        <v>786</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>787</v>
       </c>
-      <c r="F32" s="14" t="s">
-        <v>788</v>
-      </c>
       <c r="G32" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H32" s="9">
         <v>3</v>
@@ -10646,18 +10715,18 @@
         <v>140</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="E33" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="F33" s="14" t="s">
         <v>790</v>
       </c>
-      <c r="F33" s="14" t="s">
-        <v>791</v>
-      </c>
       <c r="G33" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H33" s="9">
         <v>3</v>
@@ -10665,72 +10734,72 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="20" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="21" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="22" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="20" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="20" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="56" spans="1:1">
@@ -10738,37 +10807,37 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="20" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="25" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="25" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
   </sheetData>

--- a/shanoir-ng-anonymization/src/main/resources/anonymization.xlsx
+++ b/shanoir-ng-anonymization/src/main/resources/anonymization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22160" tabRatio="991"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15880" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Profiles" sheetId="1" r:id="rId1"/>
@@ -2935,9 +2935,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="34">
+  <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3056,7 +3058,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="34">
+  <cellStyles count="36">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -3074,6 +3076,7 @@
     <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -3090,6 +3093,7 @@
     <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3489,8 +3493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C186" sqref="C186"/>
+    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F203" sqref="F203:G203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7546,11 +7550,11 @@
       <c r="E203" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F203" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G203" s="5" t="s">
-        <v>11</v>
+      <c r="F203" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G203" s="26" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -9743,7 +9747,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/shanoir-ng-anonymization/src/main/resources/anonymization.xlsx
+++ b/shanoir-ng-anonymization/src/main/resources/anonymization.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Profiles" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,15 +25,14 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="F148" authorId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
@@ -58,8 +57,7 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
@@ -84,8 +82,7 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
@@ -2799,7 +2796,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2833,14 +2830,6 @@
     <font>
       <i val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2965,11 +2954,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3018,10 +3007,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3031,23 +3016,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -3062,19 +3035,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3082,11 +3055,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3094,19 +3067,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -3172,26 +3145,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G309"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A192" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F203" activeCellId="0" sqref="F203"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,10 +3306,10 @@
       <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3480,7 +3452,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -3503,7 +3475,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -3512,7 +3484,7 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="14"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -3520,7 +3492,7 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="14"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -3804,7 +3776,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="14"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -3812,7 +3784,7 @@
       <c r="G31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="14"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -3820,7 +3792,7 @@
       <c r="G32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="14"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -3966,7 +3938,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -4150,7 +4122,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="14"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -4158,7 +4130,7 @@
       <c r="G48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="14"/>
+      <c r="B49" s="13"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -4166,7 +4138,7 @@
       <c r="G49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="14"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -4458,7 +4430,7 @@
       <c r="G63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="14"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
@@ -4466,7 +4438,7 @@
       <c r="G64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="14"/>
+      <c r="B65" s="13"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -4750,7 +4722,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="14"/>
+      <c r="B78" s="13"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
@@ -4758,7 +4730,7 @@
       <c r="G78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="14"/>
+      <c r="B79" s="13"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -4766,7 +4738,7 @@
       <c r="G79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="14"/>
+      <c r="B80" s="13"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -4950,8 +4922,8 @@
       <c r="E88" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F88" s="6" t="s">
-        <v>15</v>
+      <c r="F88" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>15</v>
@@ -4996,8 +4968,8 @@
       <c r="E90" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F90" s="6" t="s">
-        <v>15</v>
+      <c r="F90" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>15</v>
@@ -5050,7 +5022,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="14"/>
+      <c r="B93" s="13"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -5058,7 +5030,7 @@
       <c r="G93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="14"/>
+      <c r="B94" s="13"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
@@ -5066,7 +5038,7 @@
       <c r="G94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="14"/>
+      <c r="B95" s="13"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
@@ -5166,7 +5138,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="16" t="s">
+      <c r="A100" s="9" t="s">
         <v>251</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -5327,7 +5299,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="14"/>
+      <c r="B107" s="13"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -5335,7 +5307,7 @@
       <c r="G107" s="6"/>
     </row>
     <row r="108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="14"/>
+      <c r="B108" s="13"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
@@ -5343,7 +5315,7 @@
       <c r="G108" s="6"/>
     </row>
     <row r="109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="14"/>
+      <c r="B109" s="13"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
@@ -5627,7 +5599,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="14"/>
+      <c r="B122" s="13"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
@@ -5635,7 +5607,7 @@
       <c r="G122" s="6"/>
     </row>
     <row r="123" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="14"/>
+      <c r="B123" s="13"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
@@ -5643,7 +5615,7 @@
       <c r="G123" s="6"/>
     </row>
     <row r="124" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="14"/>
+      <c r="B124" s="13"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
@@ -5927,7 +5899,7 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="14"/>
+      <c r="B137" s="13"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
@@ -5935,7 +5907,7 @@
       <c r="G137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="14"/>
+      <c r="B138" s="13"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
@@ -5943,7 +5915,7 @@
       <c r="G138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="14"/>
+      <c r="B139" s="13"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
@@ -6158,7 +6130,7 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="16" t="s">
+      <c r="A149" s="9" t="s">
         <v>371</v>
       </c>
       <c r="B149" s="5" t="s">
@@ -6319,7 +6291,7 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="14"/>
+      <c r="B156" s="13"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
@@ -6327,7 +6299,7 @@
       <c r="G156" s="6"/>
     </row>
     <row r="157" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="14"/>
+      <c r="B157" s="13"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
@@ -6335,7 +6307,7 @@
       <c r="G157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="14"/>
+      <c r="B158" s="13"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
@@ -6550,7 +6522,7 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="15" t="s">
+      <c r="A168" s="7" t="s">
         <v>419</v>
       </c>
       <c r="B168" s="5" t="s">
@@ -6628,7 +6600,7 @@
       <c r="G171" s="6"/>
     </row>
     <row r="172" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="14"/>
+      <c r="B172" s="13"/>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
@@ -6636,7 +6608,7 @@
       <c r="G172" s="6"/>
     </row>
     <row r="173" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="14"/>
+      <c r="B173" s="13"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
@@ -6851,7 +6823,7 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B183" s="14"/>
+      <c r="B183" s="13"/>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
@@ -6859,7 +6831,7 @@
       <c r="G183" s="6"/>
     </row>
     <row r="184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="14"/>
+      <c r="B184" s="13"/>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
@@ -6867,7 +6839,7 @@
       <c r="G184" s="6"/>
     </row>
     <row r="185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B185" s="14"/>
+      <c r="B185" s="13"/>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
@@ -7105,7 +7077,7 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B196" s="14"/>
+      <c r="B196" s="13"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
@@ -7113,7 +7085,7 @@
       <c r="G196" s="6"/>
     </row>
     <row r="197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="14"/>
+      <c r="B197" s="13"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
@@ -7121,7 +7093,7 @@
       <c r="G197" s="6"/>
     </row>
     <row r="198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B198" s="14"/>
+      <c r="B198" s="13"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
@@ -7201,7 +7173,7 @@
       <c r="A202" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="B202" s="17" t="s">
+      <c r="B202" s="14" t="s">
         <v>495</v>
       </c>
       <c r="C202" s="6" t="s">
@@ -7382,7 +7354,7 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B210" s="14"/>
+      <c r="B210" s="13"/>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
       <c r="E210" s="6"/>
@@ -7390,7 +7362,7 @@
       <c r="G210" s="6"/>
     </row>
     <row r="211" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B211" s="14"/>
+      <c r="B211" s="13"/>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
       <c r="E211" s="6"/>
@@ -7398,7 +7370,7 @@
       <c r="G211" s="6"/>
     </row>
     <row r="212" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B212" s="14"/>
+      <c r="B212" s="13"/>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
       <c r="E212" s="6"/>
@@ -7613,7 +7585,7 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B222" s="14"/>
+      <c r="B222" s="13"/>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
       <c r="E222" s="6"/>
@@ -7621,7 +7593,7 @@
       <c r="G222" s="6"/>
     </row>
     <row r="223" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B223" s="14"/>
+      <c r="B223" s="13"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
@@ -7859,7 +7831,7 @@
       </c>
     </row>
     <row r="234" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B234" s="14"/>
+      <c r="B234" s="13"/>
       <c r="C234" s="6"/>
       <c r="D234" s="6"/>
       <c r="E234" s="6"/>
@@ -7867,7 +7839,7 @@
       <c r="G234" s="6"/>
     </row>
     <row r="235" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B235" s="14"/>
+      <c r="B235" s="13"/>
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
@@ -7875,7 +7847,7 @@
       <c r="G235" s="6"/>
     </row>
     <row r="236" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B236" s="14"/>
+      <c r="B236" s="13"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
       <c r="E236" s="6"/>
@@ -8145,7 +8117,7 @@
       <c r="G248" s="6"/>
     </row>
     <row r="249" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B249" s="14"/>
+      <c r="B249" s="13"/>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
       <c r="E249" s="6"/>
@@ -8153,7 +8125,7 @@
       <c r="G249" s="6"/>
     </row>
     <row r="250" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B250" s="14"/>
+      <c r="B250" s="13"/>
       <c r="C250" s="6"/>
       <c r="D250" s="6"/>
       <c r="E250" s="6"/>
@@ -8345,7 +8317,7 @@
       </c>
     </row>
     <row r="259" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B259" s="14"/>
+      <c r="B259" s="13"/>
       <c r="C259" s="6"/>
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
@@ -8353,7 +8325,7 @@
       <c r="G259" s="6"/>
     </row>
     <row r="260" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B260" s="14"/>
+      <c r="B260" s="13"/>
       <c r="C260" s="6"/>
       <c r="D260" s="6"/>
       <c r="E260" s="6"/>
@@ -8361,7 +8333,7 @@
       <c r="G260" s="6"/>
     </row>
     <row r="261" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B261" s="14"/>
+      <c r="B261" s="13"/>
       <c r="C261" s="6"/>
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
@@ -8691,7 +8663,7 @@
       </c>
     </row>
     <row r="276" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B276" s="14"/>
+      <c r="B276" s="13"/>
       <c r="C276" s="6"/>
       <c r="D276" s="6"/>
       <c r="E276" s="6"/>
@@ -8699,7 +8671,7 @@
       <c r="G276" s="6"/>
     </row>
     <row r="277" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B277" s="14"/>
+      <c r="B277" s="13"/>
       <c r="C277" s="6"/>
       <c r="D277" s="6"/>
       <c r="E277" s="6"/>
@@ -8707,7 +8679,7 @@
       <c r="G277" s="6"/>
     </row>
     <row r="278" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B278" s="14"/>
+      <c r="B278" s="13"/>
       <c r="C278" s="6"/>
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
@@ -9068,7 +9040,7 @@
       <c r="G294" s="6"/>
     </row>
     <row r="295" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B295" s="14"/>
+      <c r="B295" s="13"/>
       <c r="C295" s="6"/>
       <c r="D295" s="6"/>
       <c r="E295" s="6"/>
@@ -9076,7 +9048,7 @@
       <c r="G295" s="6"/>
     </row>
     <row r="296" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B296" s="14"/>
+      <c r="B296" s="13"/>
       <c r="C296" s="6"/>
       <c r="D296" s="6"/>
       <c r="E296" s="6"/>
@@ -9384,8 +9356,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -9395,22 +9367,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10.61328125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0890688259109"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0647773279352"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9455,8 +9425,8 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -9465,25 +9435,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="171.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78542510121457"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="171.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>766</v>
       </c>
     </row>
@@ -9577,8 +9545,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -9587,30 +9555,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="58.165991902834"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.3117408906883"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="41.0283400809717"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.78542510121457"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="42.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="41.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="37.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="32.03"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9673,12 +9639,12 @@
       <c r="J5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="13" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -9696,16 +9662,16 @@
       <c r="F6" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="16" t="s">
         <v>788</v>
       </c>
-      <c r="H6" s="14" t="n">
+      <c r="H6" s="13" t="n">
         <v>3</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="13" t="s">
         <v>789</v>
       </c>
     </row>
@@ -9722,16 +9688,16 @@
       <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="17" t="s">
         <v>790</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="22"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
       <c r="J7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="13" t="s">
         <v>791</v>
       </c>
     </row>
@@ -9748,22 +9714,22 @@
       <c r="D8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="16" t="s">
         <v>786</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="16" t="s">
         <v>787</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="16" t="s">
         <v>788</v>
       </c>
-      <c r="H8" s="14" t="n">
+      <c r="H8" s="13" t="n">
         <v>3</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="13" t="s">
         <v>789</v>
       </c>
     </row>
@@ -9780,25 +9746,25 @@
       <c r="D9" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="16" t="s">
         <v>786</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="16" t="s">
         <v>787</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="19" t="s">
         <v>788</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="19" t="s">
         <v>792</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>793</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="13" t="s">
         <v>794</v>
       </c>
     </row>
@@ -9815,25 +9781,25 @@
       <c r="D10" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="16" t="s">
         <v>786</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="16" t="s">
         <v>787</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="19" t="s">
         <v>788</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="19" t="s">
         <v>792</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>795</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="13" t="s">
         <v>794</v>
       </c>
     </row>
@@ -9850,22 +9816,22 @@
       <c r="D11" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="16" t="s">
         <v>797</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="17" t="s">
         <v>798</v>
       </c>
-      <c r="H11" s="24" t="n">
+      <c r="H11" s="20" t="n">
         <v>2</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="K11" s="20" t="s">
         <v>794</v>
       </c>
     </row>
@@ -9882,22 +9848,22 @@
       <c r="D12" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="16" t="s">
         <v>799</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="16" t="s">
         <v>800</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="16" t="s">
         <v>788</v>
       </c>
-      <c r="H12" s="14" t="n">
+      <c r="H12" s="13" t="n">
         <v>3</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="13" t="s">
         <v>789</v>
       </c>
     </row>
@@ -9905,19 +9871,19 @@
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="14"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="13"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="14"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="13"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
@@ -9932,16 +9898,16 @@
       <c r="D15" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="17" t="s">
         <v>790</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="22"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="18"/>
       <c r="J15" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="13" t="s">
         <v>791</v>
       </c>
     </row>
@@ -9958,22 +9924,22 @@
       <c r="D16" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="16" t="s">
         <v>799</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="16" t="s">
         <v>800</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="16" t="s">
         <v>788</v>
       </c>
-      <c r="H16" s="14" t="n">
+      <c r="H16" s="13" t="n">
         <v>3</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="13" t="s">
         <v>789</v>
       </c>
     </row>
@@ -9981,20 +9947,20 @@
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="16" t="s">
         <v>802</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="16" t="s">
         <v>803</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="16" t="s">
         <v>788</v>
       </c>
-      <c r="H17" s="14" t="n">
+      <c r="H17" s="13" t="n">
         <v>3</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="14"/>
+      <c r="K17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -10009,22 +9975,22 @@
       <c r="D18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="16" t="s">
         <v>804</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="16" t="s">
         <v>805</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="16" t="s">
         <v>788</v>
       </c>
-      <c r="H18" s="14" t="n">
+      <c r="H18" s="13" t="n">
         <v>3</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="13" t="s">
         <v>789</v>
       </c>
     </row>
@@ -10032,20 +9998,20 @@
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="16" t="s">
         <v>802</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="16" t="s">
         <v>803</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="16" t="s">
         <v>788</v>
       </c>
-      <c r="H19" s="14" t="n">
+      <c r="H19" s="13" t="n">
         <v>3</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="14"/>
+      <c r="K19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -10060,22 +10026,22 @@
       <c r="D20" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="16" t="s">
         <v>804</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="16" t="s">
         <v>805</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="16" t="s">
         <v>788</v>
       </c>
-      <c r="H20" s="14" t="n">
+      <c r="H20" s="13" t="n">
         <v>3</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="K20" s="13" t="s">
         <v>789</v>
       </c>
     </row>
@@ -10083,53 +10049,53 @@
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="16" t="s">
         <v>802</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="16" t="s">
         <v>803</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="16" t="s">
         <v>788</v>
       </c>
-      <c r="H21" s="14" t="n">
+      <c r="H21" s="13" t="n">
         <v>3</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="14"/>
+      <c r="K21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="17" t="s">
         <v>371</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="16" t="s">
         <v>806</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="16" t="s">
         <v>807</v>
       </c>
-      <c r="G22" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="23" t="s">
+      <c r="G22" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>792</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>808</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="K22" s="14" t="s">
         <v>809</v>
       </c>
     </row>
@@ -10146,22 +10112,22 @@
       <c r="D23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="16" t="s">
         <v>804</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="16" t="s">
         <v>805</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="16" t="s">
         <v>788</v>
       </c>
-      <c r="H23" s="14" t="n">
+      <c r="H23" s="13" t="n">
         <v>3</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="13" t="s">
         <v>789</v>
       </c>
     </row>
@@ -10178,22 +10144,22 @@
       <c r="D24" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="16" t="s">
         <v>786</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="16" t="s">
         <v>787</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="16" t="s">
         <v>788</v>
       </c>
-      <c r="H24" s="14" t="n">
+      <c r="H24" s="13" t="n">
         <v>3</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="13" t="s">
         <v>789</v>
       </c>
     </row>
@@ -10204,28 +10170,28 @@
       <c r="B25" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="16" t="s">
         <v>804</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="16" t="s">
         <v>805</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="16" t="s">
         <v>788</v>
       </c>
-      <c r="H25" s="14" t="n">
+      <c r="H25" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="K25" s="13" t="s">
         <v>789</v>
       </c>
     </row>
@@ -10242,22 +10208,22 @@
       <c r="D26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="16" t="s">
         <v>810</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="16" t="s">
         <v>811</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="16" t="s">
         <v>788</v>
       </c>
-      <c r="H26" s="14" t="n">
+      <c r="H26" s="13" t="n">
         <v>3</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="K26" s="13" t="s">
         <v>789</v>
       </c>
     </row>
@@ -10274,16 +10240,16 @@
       <c r="D27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="17" t="s">
         <v>790</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="22"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="18"/>
       <c r="J27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="K27" s="13" t="s">
         <v>791</v>
       </c>
     </row>
@@ -10300,16 +10266,16 @@
       <c r="D28" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="17" t="s">
         <v>790</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="22"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="18"/>
       <c r="J28" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="K28" s="13" t="s">
         <v>791</v>
       </c>
     </row>
@@ -10326,22 +10292,22 @@
       <c r="D29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="16" t="s">
         <v>804</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="16" t="s">
         <v>805</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="16" t="s">
         <v>788</v>
       </c>
-      <c r="H29" s="14" t="n">
+      <c r="H29" s="13" t="n">
         <v>3</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="K29" s="13" t="s">
         <v>789</v>
       </c>
     </row>
@@ -10358,22 +10324,22 @@
       <c r="D30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="16" t="s">
         <v>804</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="16" t="s">
         <v>805</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="16" t="s">
         <v>788</v>
       </c>
-      <c r="H30" s="14" t="n">
+      <c r="H30" s="13" t="n">
         <v>3</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="K30" s="13" t="s">
         <v>789</v>
       </c>
     </row>
@@ -10390,22 +10356,22 @@
       <c r="D31" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="16" t="s">
         <v>786</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="16" t="s">
         <v>787</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="16" t="s">
         <v>788</v>
       </c>
-      <c r="H31" s="14" t="n">
+      <c r="H31" s="13" t="n">
         <v>3</v>
       </c>
       <c r="J31" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="K31" s="14" t="s">
+      <c r="K31" s="13" t="s">
         <v>789</v>
       </c>
     </row>
@@ -10422,46 +10388,46 @@
       <c r="D32" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="16" t="s">
         <v>799</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="16" t="s">
         <v>800</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="16" t="s">
         <v>788</v>
       </c>
-      <c r="H32" s="14" t="n">
+      <c r="H32" s="13" t="n">
         <v>3</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="K32" s="13" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="16" t="s">
         <v>802</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="16" t="s">
         <v>803</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="16" t="s">
         <v>788</v>
       </c>
-      <c r="H33" s="14" t="n">
+      <c r="H33" s="13" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="21" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="22" t="s">
         <v>813</v>
       </c>
     </row>
@@ -10476,7 +10442,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="21" t="s">
         <v>782</v>
       </c>
     </row>
@@ -10496,50 +10462,50 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="21" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="23" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="22" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="24" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="22" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="22" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="29"/>
+      <c r="A56" s="25"/>
     </row>
     <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="26" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="22" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="27" t="s">
         <v>827</v>
       </c>
     </row>
@@ -10554,19 +10520,19 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="15" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="27" t="s">
         <v>830</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/shanoir-ng-anonymization/src/main/resources/anonymization.xlsx
+++ b/shanoir-ng-anonymization/src/main/resources/anonymization.xlsx
@@ -6470,11 +6470,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A278" activeCellId="0" sqref="A278"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C68" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I81" activeCellId="0" sqref="I81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.57"/>
@@ -8396,13 +8396,13 @@
         <v>15</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="10" t="s">
-        <v>15</v>
+      <c r="G81" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="AMI81" s="0"/>
       <c r="AMJ81" s="0"/>
@@ -8421,13 +8421,13 @@
         <v>15</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="10" t="s">
-        <v>15</v>
+      <c r="G82" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="AMI82" s="0"/>
       <c r="AMJ82" s="0"/>
@@ -21908,7 +21908,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="171.51"/>
   </cols>
@@ -22028,7 +22028,7 @@
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.15"/>
